--- a/BDM/Week 8/dataset_8_54.xlsx
+++ b/BDM/Week 8/dataset_8_54.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayushdutta/IITM-DS/BDM/Week 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7825AE-CDC5-254C-A717-1362C151712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B8FEAC-04AC-C44C-B2A2-309EE626E671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="26" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -113,7 +113,25 @@
     <t>OEE</t>
   </si>
   <si>
-    <t>Avergae OEE</t>
+    <t>1. Avergae OEE_WEEK</t>
+  </si>
+  <si>
+    <t>2. Overall Quality</t>
+  </si>
+  <si>
+    <t>Operating days</t>
+  </si>
+  <si>
+    <t>3. Perforf Week 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Avg Part Manuf Per hr </t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>APE</t>
   </si>
 </sst>
 </file>
@@ -251,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -259,7 +277,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,19 +296,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -484,7 +498,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75650688-CCEC-194A-9202-53BCC3A46F44}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75650688-CCEC-194A-9202-53BCC3A46F44}" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:AU6" firstHeaderRow="1" firstDataRow="3" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" numFmtId="14" showAll="0" defaultSubtotal="0">
@@ -1567,130 +1581,130 @@
       <c r="D6">
         <v>4536</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6">
         <v>3859</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>4240</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <v>4112</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6">
         <v>4099</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6">
         <v>4216</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6">
         <v>4043</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6">
         <v>4400</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6">
         <v>4110</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6">
         <v>4298</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6">
         <v>4050</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6">
         <v>4404</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6">
         <v>4088</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6">
         <v>4065</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6">
         <v>4536</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6">
         <v>4240</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6">
         <v>4280</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6">
         <v>4400</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6">
         <v>4346</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6">
         <v>4229</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6">
         <v>4591</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6">
         <v>3996</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6">
         <v>4274</v>
       </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>4017</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AE6">
         <v>4122</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AF6">
         <v>4624</v>
       </c>
-      <c r="AG6" s="7">
+      <c r="AG6">
         <v>4107</v>
       </c>
-      <c r="AH6" s="7">
+      <c r="AH6">
         <v>4196</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="AI6">
         <v>3847</v>
       </c>
-      <c r="AJ6" s="7">
+      <c r="AJ6">
         <v>4040</v>
       </c>
-      <c r="AK6" s="7">
+      <c r="AK6">
         <v>4266</v>
       </c>
-      <c r="AL6" s="7">
+      <c r="AL6">
         <v>4619</v>
       </c>
-      <c r="AM6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="7">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>4034</v>
       </c>
-      <c r="AR6" s="7">
+      <c r="AR6">
         <v>4095</v>
       </c>
-      <c r="AS6" s="7">
+      <c r="AS6">
         <v>3971</v>
       </c>
-      <c r="AT6" s="7">
+      <c r="AT6">
         <v>4325</v>
       </c>
-      <c r="AU6" s="7">
+      <c r="AU6">
         <v>4289</v>
       </c>
     </row>
@@ -2061,15 +2075,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B078ED31-83CA-7444-B61D-EA4A8D5CEE5B}">
-  <dimension ref="A3:AW16"/>
+  <dimension ref="A3:AW23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="25" max="25" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2077,216 +2091,211 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="13">
         <v>44652</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="13">
         <v>44653</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="13">
         <v>44654</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="8">
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="13">
         <v>44655</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="8">
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="13">
         <v>44656</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="8">
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="13">
         <v>44657</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="8">
+      <c r="R3" s="14"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="13">
         <v>44658</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="8">
+      <c r="U3" s="14"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="13">
         <v>44659</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="8">
+      <c r="X3" s="14"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="13">
         <v>44660</v>
       </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="8">
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="13">
         <v>44661</v>
       </c>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="8">
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="13">
         <v>44662</v>
       </c>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="8">
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="13">
         <v>44663</v>
       </c>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="8">
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="13">
         <v>44664</v>
       </c>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="8">
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="13">
         <v>44665</v>
       </c>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AB4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AC4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AD4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AE4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AH4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AI4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="12" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AK4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AL4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AM4" s="12" t="s">
+      <c r="AM4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AN4" s="13" t="s">
+      <c r="AN4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AO4" s="11" t="s">
+      <c r="AO4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="AP4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AQ4" s="13" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
+      <c r="AR4" s="10"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2418,9 +2427,6 @@
       <c r="AQ5" t="s">
         <v>4</v>
       </c>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -2552,420 +2558,447 @@
       <c r="AQ6">
         <v>4000</v>
       </c>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>3859</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>4240</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>4112</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7">
         <v>4099</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7">
         <v>4216</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7">
         <v>4043</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7">
         <v>4400</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7">
         <v>4110</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7">
         <v>4298</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7">
         <v>4050</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7">
         <v>4404</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7">
         <v>4088</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7">
         <v>4065</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7">
         <v>4536</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7">
         <v>4240</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7">
         <v>4280</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7">
         <v>4400</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7">
         <v>4346</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7">
         <v>4229</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7">
         <v>4591</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7">
         <v>3996</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7">
         <v>4274</v>
       </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>4017</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7">
         <v>4122</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7">
         <v>4624</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7">
         <v>4107</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7">
         <v>4196</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AE7">
         <v>3847</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7">
         <v>4040</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7">
         <v>4266</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7">
         <v>4619</v>
       </c>
-      <c r="AI7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="7">
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
         <v>4034</v>
       </c>
-      <c r="AN7" s="7">
+      <c r="AN7">
         <v>4095</v>
       </c>
-      <c r="AO7" s="7">
+      <c r="AO7">
         <v>3971</v>
       </c>
-      <c r="AP7" s="7">
+      <c r="AP7">
         <v>4325</v>
       </c>
-      <c r="AQ7" s="7">
+      <c r="AQ7">
         <v>4289</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>21</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>24</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>21</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>41</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8">
         <v>20</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8">
         <v>23</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8">
         <v>32</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8">
         <v>26</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8">
         <v>25</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8">
         <v>13</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8">
         <v>21</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8">
         <v>21</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8">
         <v>20</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8">
         <v>19</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8">
         <v>24</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8">
         <v>32</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8">
         <v>5</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8">
         <v>24</v>
       </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>9</v>
       </c>
-      <c r="AA8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="7">
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
         <v>36</v>
       </c>
-      <c r="AC8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="7">
+      <c r="AC8">
+        <v>4</v>
+      </c>
+      <c r="AD8">
         <v>32</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AE8">
         <v>26</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AF8">
         <v>16</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AG8">
         <v>21</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AH8">
         <v>26</v>
       </c>
-      <c r="AI8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="7">
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>28</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AN8">
         <v>36</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AO8">
         <v>10</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AP8">
         <v>28</v>
       </c>
-      <c r="AQ8" s="7">
+      <c r="AQ8">
         <v>16</v>
       </c>
-      <c r="AR8" s="7">
-        <v>179</v>
-      </c>
-      <c r="AS8" s="7">
-        <v>280</v>
-      </c>
-      <c r="AT8" s="7">
-        <v>275</v>
-      </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10">
         <f>IF(B5="Operational", 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="19">
-        <f t="shared" ref="C10:V10" si="0">IF(C5="Operational", 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C10">
+        <f t="shared" ref="C10:AQ10" si="0">IF(C5="Operational", 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10">
         <f>IF(M5="Operational", 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10">
         <f>IF(S5="Operational", 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B11">
@@ -3052,9 +3085,93 @@
         <f>V7/V6</f>
         <v>1.14775</v>
       </c>
+      <c r="W11">
+        <f>W7/W6</f>
+        <v>0.999</v>
+      </c>
+      <c r="X11">
+        <f t="shared" ref="X11:AF11" si="3">X7/X6</f>
+        <v>1.0685</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>1.0042500000000001</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="3"/>
+        <v>1.0305</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="3"/>
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>1.0267500000000001</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="3"/>
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="3"/>
+        <v>0.96174999999999999</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="3"/>
+        <v>1.01</v>
+      </c>
+      <c r="AG11">
+        <f>AG7/AG6</f>
+        <v>1.0665</v>
+      </c>
+      <c r="AH11">
+        <f>AH7/AH6</f>
+        <v>1.1547499999999999</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" ref="AI11:AP11" si="4">AI7/AI6</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="4"/>
+        <v>1.0085</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="4"/>
+        <v>1.0237499999999999</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="4"/>
+        <v>0.99275000000000002</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="4"/>
+        <v>1.08125</v>
+      </c>
+      <c r="AQ11">
+        <f>AQ7/AQ6</f>
+        <v>1.0722499999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B12">
@@ -3062,31 +3179,31 @@
         <v>0.99585384814718836</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:V12" si="3">IFERROR((C7-C8)/C7, 0)</f>
+        <f t="shared" ref="C12:AQ12" si="5">IFERROR((C7-C8)/C7, 0)</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.9950471698113208</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99416342412451364</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99487679921932182</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99027514231499048</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99851595349987632</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99545454545454548</v>
       </c>
       <c r="J12">
@@ -3094,27 +3211,27 @@
         <v>0.99975669099756692</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99464867380176825</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99209876543209874</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99841053587647588</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99363992172211346</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99384993849938497</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.9971340388007055</v>
       </c>
       <c r="Q12">
@@ -3122,28 +3239,112 @@
         <v>0.9950471698113208</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99509345794392523</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99545454545454548</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99562816382880814</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99432489950342873</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99302984099324765</v>
       </c>
+      <c r="W12">
+        <f t="shared" si="5"/>
+        <v>0.99874874874874875</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="5"/>
+        <v>0.99438465138043985</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="5"/>
+        <v>0.99775952203136664</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>0.99902959728287244</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="5"/>
+        <v>0.99221453287197237</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="5"/>
+        <v>0.99902605308010717</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="5"/>
+        <v>0.99237368922783609</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="5"/>
+        <v>0.99324148687288794</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="5"/>
+        <v>0.99603960396039604</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="5"/>
+        <v>0.99507735583684953</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="5"/>
+        <v>0.99437107599047414</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="5"/>
+        <v>0.99305899851264257</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="5"/>
+        <v>0.99120879120879124</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="5"/>
+        <v>0.99748174263409717</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="5"/>
+        <v>0.99352601156069364</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="5"/>
+        <v>0.99626952669619961</v>
+      </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5">
@@ -3151,27 +3352,27 @@
         <v>0.96074999999999999</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13:H13" si="4">C10*C11*C12</f>
+        <f t="shared" ref="C13:H13" si="6">C10*C11*C12</f>
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0547500000000001</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.022</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0195000000000001</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.04375</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.00925</v>
       </c>
       <c r="I13" s="5">
@@ -3179,11 +3380,11 @@
         <v>1.0950000000000002</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ref="J13" si="5">J10*J11*J12</f>
+        <f t="shared" ref="J13" si="7">J10*J11*J12</f>
         <v>1.02725</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" ref="K13" si="6">K10*K11*K12</f>
+        <f t="shared" ref="K13" si="8">K10*K11*K12</f>
         <v>1.0687500000000001</v>
       </c>
       <c r="L13" s="5">
@@ -3191,23 +3392,23 @@
         <v>1.0044999999999999</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" ref="M13" si="7">M10*M11*M12</f>
+        <f t="shared" ref="M13" si="9">M10*M11*M12</f>
         <v>1.0992499999999998</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" ref="N13" si="8">N10*N11*N12</f>
+        <f t="shared" ref="N13" si="10">N10*N11*N12</f>
         <v>1.0155000000000001</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ref="O13" si="9">O10*O11*O12</f>
+        <f t="shared" ref="O13" si="11">O10*O11*O12</f>
         <v>1.01</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" ref="P13" si="10">P10*P11*P12</f>
+        <f t="shared" ref="P13" si="12">P10*P11*P12</f>
         <v>1.1307499999999999</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" ref="Q13" si="11">Q10*Q11*Q12</f>
+        <f t="shared" ref="Q13" si="13">Q10*Q11*Q12</f>
         <v>1.0547500000000001</v>
       </c>
       <c r="R13" s="5">
@@ -3215,36 +3416,436 @@
         <v>1.0647500000000001</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" ref="S13" si="12">S10*S11*S12</f>
+        <f t="shared" ref="S13" si="14">S10*S11*S12</f>
         <v>1.0950000000000002</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" ref="T13" si="13">T10*T11*T12</f>
+        <f t="shared" ref="T13" si="15">T10*T11*T12</f>
         <v>1.08175</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" ref="U13" si="14">U10*U11*U12</f>
+        <f t="shared" ref="U13" si="16">U10*U11*U12</f>
         <v>1.05125</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" ref="V13" si="15">V10*V11*V12</f>
+        <f t="shared" ref="V13" si="17">V10*V11*V12</f>
         <v>1.13975</v>
       </c>
+      <c r="W13" s="5">
+        <f t="shared" ref="W13" si="18">W10*W11*W12</f>
+        <v>0.99775000000000003</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" ref="X13" si="19">X10*X11*X12</f>
+        <v>1.0625</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" ref="Y13" si="20">Y10*Y11*Y12</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" ref="Z13" si="21">Z10*Z11*Z12</f>
+        <v>1.002</v>
+      </c>
+      <c r="AA13" s="5">
+        <f t="shared" ref="AA13" si="22">AA10*AA11*AA12</f>
+        <v>1.0295000000000001</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" ref="AB13" si="23">AB10*AB11*AB12</f>
+        <v>1.147</v>
+      </c>
+      <c r="AC13" s="5">
+        <f t="shared" ref="AC13" si="24">AC10*AC11*AC12</f>
+        <v>1.0257500000000002</v>
+      </c>
+      <c r="AD13" s="5">
+        <f t="shared" ref="AD13" si="25">AD10*AD11*AD12</f>
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="AE13" s="5">
+        <f t="shared" ref="AE13" si="26">AE10*AE11*AE12</f>
+        <v>0.95524999999999993</v>
+      </c>
+      <c r="AF13" s="5">
+        <f t="shared" ref="AF13" si="27">AF10*AF11*AF12</f>
+        <v>1.006</v>
+      </c>
+      <c r="AG13" s="5">
+        <f t="shared" ref="AG13" si="28">AG10*AG11*AG12</f>
+        <v>1.06125</v>
+      </c>
+      <c r="AH13" s="5">
+        <f t="shared" ref="AH13" si="29">AH10*AH11*AH12</f>
+        <v>1.14825</v>
+      </c>
+      <c r="AI13" s="5">
+        <f t="shared" ref="AI13" si="30">AI10*AI11*AI12</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="5">
+        <f t="shared" ref="AJ13" si="31">AJ10*AJ11*AJ12</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="5">
+        <f t="shared" ref="AK13" si="32">AK10*AK11*AK12</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="5">
+        <f t="shared" ref="AL13" si="33">AL10*AL11*AL12</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="5">
+        <f t="shared" ref="AM13" si="34">AM10*AM11*AM12</f>
+        <v>1.0015000000000001</v>
+      </c>
+      <c r="AN13" s="5">
+        <f t="shared" ref="AN13" si="35">AN10*AN11*AN12</f>
+        <v>1.01475</v>
+      </c>
+      <c r="AO13" s="5">
+        <f t="shared" ref="AO13" si="36">AO10*AO11*AO12</f>
+        <v>0.99024999999999996</v>
+      </c>
+      <c r="AP13" s="5">
+        <f t="shared" ref="AP13" si="37">AP10*AP11*AP12</f>
+        <v>1.0742500000000001</v>
+      </c>
+      <c r="AQ13" s="5">
+        <f t="shared" ref="AQ13" si="38">AQ10*AQ11*AQ12</f>
+        <v>1.0682499999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <f>IFERROR(ABS((B7-B6)/B7), 0)</f>
+        <v>3.6537963202902306E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:AQ14" si="39">IFERROR(ABS((C7-C6)/C7), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="39"/>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="39"/>
+        <v>2.7237354085603113E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="39"/>
+        <v>2.4152232251768723E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="39"/>
+        <v>5.1233396584440226E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="39"/>
+        <v>1.0635666584219638E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="39"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="39"/>
+        <v>2.6763990267639901E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="39"/>
+        <v>6.9334574220567699E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="39"/>
+        <v>1.2345679012345678E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="39"/>
+        <v>9.1734786557674836E-2</v>
+      </c>
+      <c r="N14">
+        <f>IFERROR(ABS((N7-N6)/N7), 0)</f>
+        <v>2.1526418786692758E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="39"/>
+        <v>1.5990159901599015E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="39"/>
+        <v>0.11816578483245149</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="39"/>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="39"/>
+        <v>6.5420560747663545E-2</v>
+      </c>
+      <c r="S14">
+        <f>IFERROR(ABS((S7-S6)/S7), 0)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="39"/>
+        <v>7.9613437643810403E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="39"/>
+        <v>5.414991723811776E-2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="39"/>
+        <v>0.1287301241559573</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="39"/>
+        <v>1.001001001001001E-3</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="39"/>
+        <v>6.4108563406644822E-2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="39"/>
+        <v>4.2320139407518052E-3</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="39"/>
+        <v>2.9597282872392043E-2</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="39"/>
+        <v>0.13494809688581316</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="39"/>
+        <v>2.6053080107134162E-2</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="39"/>
+        <v>4.6711153479504289E-2</v>
+      </c>
+      <c r="AE14">
+        <f>IFERROR(ABS((AE7-AE6)/AE7), 0)</f>
+        <v>3.9771250324928516E-2</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="39"/>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="39"/>
+        <v>6.235349273323957E-2</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="39"/>
+        <v>0.13401169084217363</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="39"/>
+        <v>8.4283589489340602E-3</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="39"/>
+        <v>2.31990231990232E-2</v>
+      </c>
+      <c r="AO14">
+        <f>IFERROR(ABS((AO7-AO6)/AO7), 0)</f>
+        <v>7.3029463611181062E-3</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="39"/>
+        <v>7.5144508670520235E-2</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="39"/>
+        <v>6.7381674049895077E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <f>SUM(B13:V13) / 21</f>
         <v>1.0022976190476189</v>
       </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF(B5:V5, "Operational")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <f>(SUM(B7:AQ7)-SUM(B8:AQ8)) / SUM(B7:AQ7)</f>
+        <v>0.99515281189740334</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIF(B5:AQ5, "Operational")</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <f>SUM(W7:AQ7) / (F18*4000)</f>
+        <v>1.04409375</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIF(W5:AQ5, "Operational")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <f>SUM(B7:AQ7)/(F17 * 8)</f>
+        <v>525.79166666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f>COUNTIFS(B5:AQ5, "Operational", B4:AQ4, "Shift 1")</f>
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIFS(B5:AQ5, "Operational", B4:AQ4, "Shift 2")</f>
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIFS(B5:AQ5, "Operational", B4:AQ4, "Shift 3")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <f>SUMIFS(B14:AQ14, B4:AQ4, "Shift 1") / B22</f>
+        <v>2.9164934968143041E-2</v>
+      </c>
+      <c r="C23">
+        <f>SUMIFS($B$14:$AQ$14, $B$4:$AQ$4, "Shift 2") / C22</f>
+        <v>4.5775916680985053E-2</v>
+      </c>
+      <c r="D23">
+        <f>SUMIFS($B$14:$AQ$14, $B$4:$AQ$4, "Shift 3") / D22</f>
+        <v>8.0287723516166157E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AW3"/>
     <mergeCell ref="Z3:AB3"/>
@@ -3253,16 +3854,9 @@
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="AL3:AN3"/>
     <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="W3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/BDM/Week 8/dataset_8_54.xlsx
+++ b/BDM/Week 8/dataset_8_54.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayushdutta/IITM-DS/BDM/Week 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B8FEAC-04AC-C44C-B2A2-309EE626E671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB2267-5B0F-9145-B464-F7D09F43A132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -498,7 +497,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75650688-CCEC-194A-9202-53BCC3A46F44}" name="PivotTable3" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75650688-CCEC-194A-9202-53BCC3A46F44}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:AU6" firstHeaderRow="1" firstDataRow="3" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" numFmtId="14" showAll="0" defaultSubtotal="0">
@@ -1064,7 +1063,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1300,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AU15"/>
+  <dimension ref="A1:AU17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:AU6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1834,6 +1833,12 @@
         <v>4289</v>
       </c>
     </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>151428+734</f>
+        <v>152162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -1847,7 +1852,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D15"/>
+      <selection activeCell="B2" sqref="B2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2075,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B078ED31-83CA-7444-B61D-EA4A8D5CEE5B}">
-  <dimension ref="A3:AW23"/>
+  <dimension ref="A3:AW25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3836,6 +3841,24 @@
         <v>8.0287723516166157E-2</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f>COUNTIF(B5:V5, "Operational") / 21</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="C25">
+        <f>SUM(B7:V7) / (4000 * F16)</f>
+        <v>1.0575749999999999</v>
+      </c>
+      <c r="D25">
+        <f>(SUM(B7:V7) - SUM(B8:V8) ) / SUM(B7:V7)</f>
+        <v>0.99511854951185497</v>
+      </c>
+      <c r="E25">
+        <f>B25*C25*D25</f>
+        <v>1.0022976190476189</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="W3:Y3"/>
